--- a/StructureDefinition-molicavc-smokingstatus-extension.xlsx
+++ b/StructureDefinition-molicavc-smokingstatus-extension.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="75">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-08T18:23:11-03:00</t>
+    <t>2023-10-17T16:55:27-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Observation</t>
+    <t>element:Element</t>
   </si>
   <si>
     <t/>
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -472,77 +472,85 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>36</v>
       </c>
     </row>

--- a/StructureDefinition-molicavc-smokingstatus-extension.xlsx
+++ b/StructureDefinition-molicavc-smokingstatus-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T16:55:27-03:00</t>
+    <t>2023-10-25T16:05:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
